--- a/manitto/member_list.xlsx
+++ b/manitto/member_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wooju\SynologyDrive\PC\Documents\GitHub\manitto_select\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wooju\SynologyDrive\PC\Documents\GitHub\Manitto\manitto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E331E5EB-0C38-4C52-9F11-5A6BC340C14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF6492-F54D-4ACE-A088-6B875BFC6F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{978916C3-503A-47C8-B3E8-69F0223308E6}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C29"/>
+      <selection activeCell="C13" sqref="A2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>

--- a/manitto/member_list.xlsx
+++ b/manitto/member_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wooju\SynologyDrive\PC\Documents\GitHub\Manitto\manitto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF6492-F54D-4ACE-A088-6B875BFC6F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4768964C-1DF5-4BAE-B74B-CF43249FEF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{978916C3-503A-47C8-B3E8-69F0223308E6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,54 @@
   <si>
     <t>GRADE</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부원1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부원2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>junfor31513@gmail.com</t>
+  </si>
+  <si>
+    <t>junfor31513@gmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부원3</t>
+  </si>
+  <si>
+    <t>부원4</t>
+  </si>
+  <si>
+    <t>부원5</t>
+  </si>
+  <si>
+    <t>부원6</t>
+  </si>
+  <si>
+    <t>부원7</t>
+  </si>
+  <si>
+    <t>부원8</t>
+  </si>
+  <si>
+    <t>부원9</t>
+  </si>
+  <si>
+    <t>부원10</t>
+  </si>
+  <si>
+    <t>부원11</t>
+  </si>
+  <si>
+    <t>부원12</t>
+  </si>
+  <si>
+    <t>부원13</t>
   </si>
 </sst>
 </file>
@@ -450,7 +498,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A2:C13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -470,43 +518,147 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B3" s="1"/>
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B5" s="1"/>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B6" s="1"/>
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B8" s="1"/>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B10" s="1"/>
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B11" s="1"/>
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B12" s="1"/>
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B13" s="1"/>
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="B14" s="1"/>
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="B15" s="1"/>
@@ -567,6 +719,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B9005EF6-7ADC-46D8-897E-361D81463DCE}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{0508E9E3-03E6-4DEB-802D-D6B284E58D3F}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{59E13ED6-8437-44F8-AEDC-07816435ADA7}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{AF63BC0A-83FB-43F0-A454-29A3EA02F1E3}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{582544CB-9A5B-40EC-9368-F33C83E7D6D0}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{D3338FD5-9F3E-4632-97C0-F318C61C8F85}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{FFD82DD3-A217-4B88-86ED-884A7C34708A}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{88E1D11D-E697-42C2-A0B3-EB93DF5EB0E0}"/>
+    <hyperlink ref="B5" r:id="rId9" xr:uid="{6303054A-0FA7-4124-A12E-A69E101528D6}"/>
+    <hyperlink ref="B7" r:id="rId10" xr:uid="{96410198-AEDC-4073-9E3D-95DE7F72B640}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{BEC50C5B-6191-4DFD-81B3-B9ECBAE41C2A}"/>
+    <hyperlink ref="B11" r:id="rId12" xr:uid="{1C91EA80-9E53-45F6-8789-5E2839CB9975}"/>
+    <hyperlink ref="B13" r:id="rId13" xr:uid="{4E144138-FA5C-4334-B77D-521C1CFFFAC1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>